--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_4571.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_4571.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4571</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Paththamperuma Arachchige Don Lakshan Rangika Sandakan</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Wrist Spin (Chinaman)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>21/08/2016</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3923</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3983</t>
+          <t>3983</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3985</t>
+          <t>3985</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3987</t>
+          <t>3987</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3989</t>
+          <t>3989</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +864,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>02/07/2017</t>
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4055</t>
+          <t>4055</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -848,7 +911,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>06/07/2017</t>
@@ -856,7 +918,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4058</t>
+          <t>4058</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -896,7 +958,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>08/07/2017</t>
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4059</t>
+          <t>4059</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -956,7 +1017,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4061</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -996,7 +1057,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>21/01/2018</t>
@@ -1004,7 +1064,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4119</t>
+          <t>4119</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1044,7 +1104,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>25/01/2018</t>
@@ -1052,7 +1111,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1104,7 +1163,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4182</t>
+          <t>4182</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1144,7 +1203,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -1152,7 +1210,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4209</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1192,7 +1250,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>13/10/2018</t>
@@ -1200,7 +1257,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1240,7 +1297,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>23/10/2018</t>
@@ -1248,7 +1304,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1300,7 +1356,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1352,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1404,7 +1460,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1456,7 +1512,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4261</t>
+          <t>4261</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1508,7 +1564,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4376</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1560,7 +1616,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1600,7 +1656,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>26/02/2020</t>
@@ -1608,7 +1663,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1660,7 +1715,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1712,7 +1767,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1764,7 +1819,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1804,7 +1859,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>14/03/2021</t>
@@ -1812,7 +1866,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1864,7 +1918,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1916,7 +1970,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1956,7 +2010,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>18/07/2021</t>
@@ -1964,7 +2017,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4480</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2016,7 +2069,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4482</t>
+          <t>4482</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2055,7 +2108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2077,7 +2130,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2114,7 +2167,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3923</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2151,7 +2204,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3983</t>
+          <t>3983</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2188,7 +2241,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3985</t>
+          <t>3985</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2225,7 +2278,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3987</t>
+          <t>3987</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2262,7 +2315,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3989</t>
+          <t>3989</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2299,7 +2352,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2336,7 +2389,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4055</t>
+          <t>4055</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2373,7 +2426,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4058</t>
+          <t>4058</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2410,7 +2463,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4059</t>
+          <t>4059</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2447,7 +2500,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4061</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2484,7 +2537,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4119</t>
+          <t>4119</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2521,7 +2574,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2558,7 +2611,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4182</t>
+          <t>4182</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2595,7 +2648,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2632,7 +2685,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2669,7 +2722,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2706,7 +2759,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2743,7 +2796,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2780,7 +2833,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4261</t>
+          <t>4261</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2817,7 +2870,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4376</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2854,7 +2907,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2891,7 +2944,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2928,7 +2981,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2965,7 +3018,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3002,7 +3055,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3039,7 +3092,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3076,7 +3129,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3113,7 +3166,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3150,7 +3203,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4480</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3187,7 +3240,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4482</t>
+          <t>4482</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3213,6 +3266,515 @@
       <c r="G31" t="inlineStr">
         <is>
           <t>1/71</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4122</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4182</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.59%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4209</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4210</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4215</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4231</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.84%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4232</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2.01%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4233</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4261</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.30%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4413</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4449</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6.90%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4450</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4463</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3.57%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_4571.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_4571.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3329,9 +3330,6 @@
       <c r="B2" t="n">
         <v>9</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3374,10 +3372,6 @@
           <t>4209</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3393,9 +3387,6 @@
       <c r="B5" t="n">
         <v>9</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3411,9 +3402,6 @@
       <c r="B6" t="n">
         <v>11</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3486,15 +3474,412 @@
           <t>4233</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4261</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.30%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4413</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4449</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6.90%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4450</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4463</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3.57%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4119</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4122</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4182</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4210</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4215</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4231</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4232</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4233</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3502,29 +3887,12 @@
           <t>4261</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.30%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3532,25 +3900,12 @@
           <t>4376</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3558,29 +3913,12 @@
           <t>4413</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.03%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3590,13 +3928,6 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3604,25 +3935,12 @@
           <t>4417</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3630,29 +3948,12 @@
           <t>4449</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6.90%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3662,13 +3963,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3676,17 +3970,12 @@
           <t>4451</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>10</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3694,27 +3983,14 @@
           <t>4463</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>10</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.57%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3726,13 +4002,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3740,15 +4009,14 @@
           <t>4480</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>11</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3758,23 +4026,14 @@
           <t>4482</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>10</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_4571.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_4571.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>21/08/2016</t>
@@ -865,6 +864,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>02/07/2017</t>
@@ -912,6 +912,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>06/07/2017</t>
@@ -959,6 +960,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>08/07/2017</t>
@@ -1058,6 +1060,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>21/01/2018</t>
@@ -1105,6 +1108,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>25/01/2018</t>
@@ -1204,6 +1208,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -1216,7 +1221,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1251,6 +1256,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>13/10/2018</t>
@@ -1298,6 +1304,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>23/10/2018</t>
@@ -1657,6 +1664,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>26/02/2020</t>
@@ -1860,6 +1868,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>14/03/2021</t>
@@ -2011,6 +2020,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>18/07/2021</t>
@@ -3273,771 +3283,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4122</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>9</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4182</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.59%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4209</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4210</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4215</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4231</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.84%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4232</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.01%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4233</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4261</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.30%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4376</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.03%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4449</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6.90%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4450</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4451</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4463</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.57%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4464</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4480</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>11</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4482</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>10</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4119</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4122</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4182</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4210</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4215</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4231</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4232</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4233</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4261</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4376</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4449</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4450</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4451</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4463</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4464</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4480</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4482</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>